--- a/Survey_responses.xlsx
+++ b/Survey_responses.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia.rodes\Documents\IAM_COMPACT\Paper_Open_Science\paper_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudia.rodes\Documents\IAM_COMPACT\Paper_Open_Science\open_science_iams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BED51D-45B8-4D82-9A35-4C82E81CB2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553C715-F4A5-4B9F-A5E2-8B078BCB1885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8445" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7BDA42CE-55E5-4F7C-B9E2-925A446AFC70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{7BDA42CE-55E5-4F7C-B9E2-925A446AFC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="SurveyResults" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SurveyResults!$F$12:$O$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -330,8 +333,35 @@
   </t>
   </si>
   <si>
-    <t>The attached table summarizes the survey results from nine modeling teams gathered in the IAM COMPACT project [1] context. To protect respondent anonymity, certain answers have been withheld for confidentiality. Despite these omissions, the data offers valuable insights into the general trends, methodologies, and platforms used across different teams. The survey aims to enhance understanding of current open science practices within the integrated assessment modeling community, with a particular emphasis on documentation standards, data management strategies, and transparent modeling practices.
-The survey was answered during July and Agust 2024.</t>
+    <t>Paper describing the model</t>
+  </si>
+  <si>
+    <t>Yes, through the IAM2Paris validation tool</t>
+  </si>
+  <si>
+    <t>The whole output</t>
+  </si>
+  <si>
+    <t>Ongoing efforts to develop a model-specific tool</t>
+  </si>
+  <si>
+    <t>Not defined</t>
+  </si>
+  <si>
+    <t>To collaborate</t>
+  </si>
+  <si>
+    <t>Git-Hub for model publication, Zenodo for model output and Jypyter for coding</t>
+  </si>
+  <si>
+    <t>Sporadic use</t>
+  </si>
+  <si>
+    <t>The attached table summarizes the survey results from thirteen modeling teams gathered in the IAM COMPACT [1] and DIAMOND [2] projects context. To protect respondent anonymity, certain answers have been withheld for confidentiality. Despite these omissions, the data offers valuable insights into the general trends, methodologies, and platforms used across different teams. The survey aims to enhance understanding of current open science practices within the integrated assessment modeling community, with a particular emphasis on documentation standards, data management strategies, and transparent modeling practices.
+The survey was answered during July and Agust 2024 by the IAM COMPACT partners and during May 2025 by the DIAMOND partners.</t>
+  </si>
+  <si>
+    <t>[2] DIAMOND. DIAMOND: Delivering the next generation of open Integrated Assessment Models for Net-zero, sustainable Development. 2024. Available at: https://www.climate-diamond.eu/. Accessed May 19, 2025.</t>
   </si>
 </sst>
 </file>
@@ -468,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -509,15 +539,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -538,9 +559,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -548,7 +567,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -556,11 +586,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,80 +612,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,6 +666,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -677,22 +704,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,28 +725,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,8 +767,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -792,8 +804,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -824,8 +836,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -856,8 +868,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -908,8 +920,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -936,8 +948,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -968,8 +980,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -1000,8 +1012,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
+        <left style="thick">
+          <color auto="1"/>
         </left>
         <right/>
         <top/>
@@ -1402,178 +1414,194 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="29" width="20" style="35" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="29" width="20" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:29" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
     </row>
     <row r="2" spans="1:29" ht="116.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="A2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
-    <row r="5" spans="1:29" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:29" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
     </row>
     <row r="6" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
+      <c r="A8" s="22"/>
     </row>
-    <row r="9" spans="1:29" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:29" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:29" ht="48.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="Q10" s="38"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="1:29" ht="48.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="Q16" s="38"/>
+      <c r="Q16" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A10:K10"/>
+  <mergeCells count="21">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="C1:E1"/>
@@ -1582,13 +1610,13 @@
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1597,270 +1625,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F52698-A2D4-4C33-BB02-298552474B53}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" style="1" customWidth="1"/>
-    <col min="7" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="27" customWidth="1"/>
+    <col min="7" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="27" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="1" customWidth="1"/>
-    <col min="27" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="9"/>
+    <col min="27" max="27" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="34"/>
+    <col min="32" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="10" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="42" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="42" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="56" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="8"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="33"/>
     </row>
     <row r="2" spans="1:31" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="I3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="M3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="V3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="6" t="s">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AC3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="9"/>
+      <c r="AE3" s="34"/>
     </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="1"/>
@@ -1869,136 +1912,136 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="3" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="3" t="s">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="27" t="s">
         <v>58</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="9"/>
+      <c r="AE4" s="34"/>
     </row>
-    <row r="5" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="6" t="s">
+      <c r="S5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="6" t="s">
+      <c r="V5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Y5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="5" t="s">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AC5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AC5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="34"/>
     </row>
-    <row r="6" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -2017,136 +2060,136 @@
       <c r="Q6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="3" t="s">
+      <c r="U6" s="1"/>
+      <c r="V6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="3" t="s">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="3" t="s">
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="27" t="s">
         <v>61</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" s="9"/>
+      <c r="AE6" s="34"/>
     </row>
-    <row r="7" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="6" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="6" t="s">
+      <c r="S7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="6" t="s">
+      <c r="V7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="6" t="s">
+      <c r="Y7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AC7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AE7" s="9"/>
+      <c r="AE7" s="34"/>
     </row>
-    <row r="8" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="L8" s="1"/>
@@ -2155,136 +2198,136 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="W8" s="1"/>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="9"/>
+      <c r="AE8" s="34"/>
     </row>
-    <row r="9" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="6" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="6" t="s">
+      <c r="S9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="6" t="s">
+      <c r="V9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="7" t="s">
+      <c r="Y9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="5" t="s">
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AC9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="34"/>
     </row>
-    <row r="10" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2305,109 +2348,388 @@
       <c r="Q10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="3" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="27" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="3" t="s">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="3" t="s">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="34"/>
     </row>
-    <row r="11" spans="1:31" s="11" customFormat="1" ht="225" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:31" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="13" t="s">
+      <c r="K11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="14" t="s">
+      <c r="S11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="14" t="s">
+      <c r="U11" s="5"/>
+      <c r="V11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="13" t="s">
+      <c r="X11" s="5"/>
+      <c r="Y11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AB11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AC11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AC11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
+        <v>2019</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="34"/>
+    </row>
+    <row r="14" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE14" s="34"/>
+    </row>
+    <row r="15" spans="1:31" s="8" customFormat="1" ht="225" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2422,8 +2744,9 @@
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>